--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="GENERADORES" sheetId="4" r:id="rId5"/>
     <sheet name="INTEGRACION" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -411,7 +406,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -446,7 +441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -623,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -999,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G10"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1041,7 @@
         <v>5.7599999999999998E-2</v>
       </c>
       <c r="F2" s="4">
-        <f>2*G2</f>
+        <f t="shared" ref="F2:F10" si="0">2*G2</f>
         <v>0</v>
       </c>
       <c r="G2" s="4">
@@ -1073,7 +1068,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="F3" s="4">
-        <f>2*G3</f>
+        <f t="shared" si="0"/>
         <v>0.17599999999999999</v>
       </c>
       <c r="G3" s="4">
@@ -1100,7 +1095,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="F4" s="4">
-        <f>2*G4</f>
+        <f t="shared" si="0"/>
         <v>0.158</v>
       </c>
       <c r="G4" s="6">
@@ -1127,7 +1122,7 @@
         <v>0.161</v>
       </c>
       <c r="F5" s="4">
-        <f>2*G5</f>
+        <f t="shared" si="0"/>
         <v>0.30599999999999999</v>
       </c>
       <c r="G5" s="4">
@@ -1154,7 +1149,7 @@
         <v>0.17</v>
       </c>
       <c r="F6" s="4">
-        <f>2*G6</f>
+        <f t="shared" si="0"/>
         <v>0.35799999999999998</v>
       </c>
       <c r="G6" s="4">
@@ -1181,7 +1176,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="F7" s="4">
-        <f>2*G7</f>
+        <f t="shared" si="0"/>
         <v>0.14899999999999999</v>
       </c>
       <c r="G7" s="4">
@@ -1208,7 +1203,7 @@
         <v>0.1008</v>
       </c>
       <c r="F8" s="4">
-        <f>2*G8</f>
+        <f t="shared" si="0"/>
         <v>0.20899999999999999</v>
       </c>
       <c r="G8" s="4">
@@ -1235,7 +1230,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F9" s="4">
-        <f>2*G9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="4">
@@ -1262,7 +1257,7 @@
         <v>5.8599999999999999E-2</v>
       </c>
       <c r="F10" s="4">
-        <f>2*G10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="4">
@@ -1948,7 +1943,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="GENERADORES" sheetId="4" r:id="rId5"/>
     <sheet name="INTEGRACION" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>BARRA PARTIDA</t>
   </si>
@@ -135,12 +140,21 @@
   </si>
   <si>
     <t>Zfalla</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>XQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -295,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -346,6 +360,7 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1850,7 +1865,7 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
@@ -1869,8 +1884,17 @@
       <c r="F1" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1889,8 +1913,17 @@
       <c r="F2" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I2" s="13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1909,8 +1942,17 @@
       <c r="F3" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2.15</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1929,12 +1971,22 @@
       <c r="F4" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I4" s="13">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="2" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="GENERADORES" sheetId="4" r:id="rId5"/>
     <sheet name="INTEGRACION" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -154,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -633,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="19">
         <v>9.9999999999999995E-7</v>
@@ -1010,7 +1005,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1914,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="13">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="H2" s="13">
         <v>2.2999999999999998</v>
@@ -1943,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="13">
-        <v>1.4999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="H3" s="13">
         <v>2.15</v>
@@ -1972,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="13">
-        <v>0.02</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H4" s="13">
         <v>2.1800000000000002</v>

--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NODOS" sheetId="2" r:id="rId1"/>
-    <sheet name="RAMAS PRE" sheetId="1" r:id="rId2"/>
-    <sheet name="RAMAS FALLA" sheetId="5" r:id="rId3"/>
+    <sheet name="NODOS_FALLA" sheetId="9" r:id="rId2"/>
+    <sheet name="RAMAS PRE" sheetId="1" r:id="rId3"/>
     <sheet name="RAMAS POST" sheetId="6" r:id="rId4"/>
-    <sheet name="GENERADORES" sheetId="4" r:id="rId5"/>
-    <sheet name="INTEGRACION" sheetId="7" r:id="rId6"/>
+    <sheet name="RAMAS FALLA" sheetId="5" r:id="rId5"/>
+    <sheet name="GENERADORES" sheetId="4" r:id="rId6"/>
+    <sheet name="FALLAS" sheetId="8" r:id="rId7"/>
+    <sheet name="INTEGRACION" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>BARRA PARTIDA</t>
   </si>
@@ -101,18 +103,6 @@
     <t>TAP</t>
   </si>
   <si>
-    <t>RESISTENCIA ITNERNA</t>
-  </si>
-  <si>
-    <t>REACTANCIA TRANSITORIA</t>
-  </si>
-  <si>
-    <t>TENSION INTERNA</t>
-  </si>
-  <si>
-    <t>ANGULO d0</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -137,13 +127,70 @@
     <t>Zfalla</t>
   </si>
   <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>XQ</t>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>FASES</t>
+  </si>
+  <si>
+    <t>BARRA i</t>
+  </si>
+  <si>
+    <t>BARRA j</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>Xd</t>
+  </si>
+  <si>
+    <t>Xdp</t>
+  </si>
+  <si>
+    <t>Xdpp</t>
+  </si>
+  <si>
+    <t>Xq</t>
+  </si>
+  <si>
+    <t>Xqp</t>
+  </si>
+  <si>
+    <t>Xqpp</t>
+  </si>
+  <si>
+    <t>tdop</t>
+  </si>
+  <si>
+    <t>tqop</t>
+  </si>
+  <si>
+    <t>tdopp</t>
+  </si>
+  <si>
+    <t>tqopp</t>
+  </si>
+  <si>
+    <t>Kv</t>
+  </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>Tt</t>
+  </si>
+  <si>
+    <t>Devanado Campo</t>
   </si>
 </sst>
 </file>
@@ -153,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +242,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -343,7 +402,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -356,6 +414,25 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,11 +749,11 @@
       <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>36</v>
+      <c r="J1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -707,10 +784,10 @@
       <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="18">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19">
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -742,10 +819,10 @@
       <c r="I3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="18">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -777,10 +854,10 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -812,10 +889,10 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
         <v>0</v>
       </c>
     </row>
@@ -847,10 +924,10 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
         <v>0</v>
       </c>
     </row>
@@ -882,10 +959,10 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
         <v>0</v>
       </c>
     </row>
@@ -917,10 +994,10 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
         <v>0</v>
       </c>
     </row>
@@ -952,10 +1029,10 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -987,10 +1064,10 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1001,6 +1078,371 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1079,288 +1521,6 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" si="0"/>
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="G3" s="4">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E4" s="6">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.158</v>
-      </c>
-      <c r="G4" s="6">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.161</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.153</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="G7" s="4">
-        <v>7.4499999999999997E-2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.1008</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.1045</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5.8599999999999999E-2</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="F2" s="4">
-        <f>2*G2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F10" si="0">2*G3</f>
         <v>0.17599999999999999</v>
       </c>
       <c r="G3" s="4">
@@ -1848,136 +2008,542 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F10" si="0">2*G3</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G3" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.158</v>
+      </c>
+      <c r="G4" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.161</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1008</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1045</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="B2" s="5">
         <v>1E-3</v>
       </c>
-      <c r="H2" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I2" s="13">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F2" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I2" s="5">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J2" s="28">
+        <v>10000000000</v>
+      </c>
+      <c r="K2" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11.818</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R2" s="28">
+        <v>10000000000</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="T2" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.12</v>
       </c>
-      <c r="D3" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <v>5</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="H3" s="13">
-        <v>2.15</v>
-      </c>
-      <c r="I3" s="13">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.104</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.9829999999999997</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R3" s="28">
+        <v>10000000000</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="B4" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H4" s="13">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="I4" s="13">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
+      <c r="C4" s="5">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.258</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.8869999999999996</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>2.4</v>
+      </c>
+      <c r="R4" s="28">
+        <v>10000000000</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1985,61 +2551,153 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="16">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -705,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2681,7 +2681,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="15">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" tabRatio="883" activeTab="7"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <sheet name="FALLAS" sheetId="8" r:id="rId7"/>
     <sheet name="INTEGRACION" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -196,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
@@ -363,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -433,6 +438,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -528,7 +534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -705,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2293,7 +2299,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="5">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P2" s="5">
         <v>1</v>
@@ -2417,10 +2423,10 @@
         <v>2.4</v>
       </c>
       <c r="R2" s="28">
-        <v>10000000000</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0.9</v>
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="28">
+        <v>2</v>
       </c>
       <c r="T2" s="29">
         <v>2</v>
@@ -2469,7 +2475,9 @@
       <c r="N3" s="5">
         <v>1</v>
       </c>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
       <c r="P3" s="5">
         <v>1</v>
       </c>
@@ -2477,10 +2485,10 @@
         <v>2.4</v>
       </c>
       <c r="R3" s="28">
-        <v>10000000000</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0.9</v>
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="28">
+        <v>2</v>
       </c>
       <c r="T3" s="1"/>
     </row>
@@ -2527,7 +2535,9 @@
       <c r="N4" s="5">
         <v>1</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
       <c r="P4" s="5">
         <v>1</v>
       </c>
@@ -2535,10 +2545,10 @@
         <v>2.4</v>
       </c>
       <c r="R4" s="28">
-        <v>10000000000</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0.9</v>
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="28">
+        <v>2</v>
       </c>
       <c r="T4" s="1"/>
     </row>
@@ -2651,6 +2661,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
@@ -2665,7 +2678,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="15">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,15 +2686,15 @@
         <v>28</v>
       </c>
       <c r="B3" s="15">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="15">
-        <v>5000</v>
+      <c r="B4" s="31">
+        <v>3500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Montilva\Google Drive\Conversión y Transporte de Energía\CT4211 - Potencia III\SepDic2017 - Prof. Bermudez\Programas\Estabilidad-Transitoria-PIII\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2298,7 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="P2" s="5">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="22">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="31">
-        <v>3500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Datos9barras_confalla.xlsx
+++ b/Datos9barras_confalla.xlsx
@@ -2694,7 +2694,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="31">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
